--- a/041_Data regression prediction based on random forest algorithm - predicting new data/预测结果.xlsx
+++ b/041_Data regression prediction based on random forest algorithm - predicting new data/预测结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\Matlab程序集合\基于支持向量机的数据回归预测(libsvm)_预测新数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w9629\Documents\MATLAB\GitHub项目程序\中文版本\041_基于随机森林算法的数据回归预测-预测新数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBFA4F1-9B87-489B-B5B6-220DA1C9FECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6BB13D-DB8C-4DF3-9C5B-0E2799D0CBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{2E1731DE-ABC1-41DC-BF7E-89D05FE26943}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{2E1731DE-ABC1-41DC-BF7E-89D05FE26943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,59 +395,59 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>35.751077085734842</v>
+        <v>31.459047500000008</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>34.731387489035733</v>
+        <v>37.362166666666653</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>43.131777393715559</v>
+        <v>40.805443333333315</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>32.689051134038571</v>
+        <v>54.056950000000015</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>19.555163152846003</v>
+        <v>50.338825000000014</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>35.406181366092952</v>
+        <v>45.664733333333331</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>34.190979489545001</v>
+        <v>32.419769999999986</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>36.061467335516838</v>
+        <v>33.642547499999985</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>33.086765068356684</v>
+        <v>39.277924166666679</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>33.928205629500837</v>
+        <v>44.745422499999989</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
